--- a/main/xls/lcd.xlsx
+++ b/main/xls/lcd.xlsx
@@ -495,7 +495,7 @@
   <dimension ref="A1:A22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
